--- a/table.xlsx
+++ b/table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\win2008r2\ソフト課資料保管\加藤幹也\selling_list\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\勉強用フォルダ\sales_information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA01D6C-36BA-4882-8467-E6411A609A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE196AE-1063-4324-B448-132D3FC1AE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15375" yWindow="0" windowWidth="15165" windowHeight="15000" tabRatio="847" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11835" yWindow="465" windowWidth="16350" windowHeight="15000" tabRatio="847" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -1150,11 +1150,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1287,7 +1288,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="24">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>21</v>
@@ -1343,7 +1344,7 @@
         <v>23</v>
       </c>
       <c r="E7" s="24">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>20</v>
@@ -1399,7 +1400,7 @@
         <v>27</v>
       </c>
       <c r="E9" s="24">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>20</v>
@@ -1427,7 +1428,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="20">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>20</v>
@@ -1455,7 +1456,7 @@
         <v>27</v>
       </c>
       <c r="E11" s="24">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>27</v>
@@ -1483,7 +1484,7 @@
         <v>27</v>
       </c>
       <c r="E12" s="20">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F12" s="20" t="s">
         <v>27</v>
@@ -1710,6 +1711,6 @@
     <dataValidation imeMode="hiragana" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 K1 I9:I11 K4 H5:H11 B3:B65514 H12:I19 J5:K19" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
   </dataValidations>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="9" firstPageNumber="6" orientation="landscape" useFirstPageNumber="1" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="96" firstPageNumber="6" orientation="landscape" useFirstPageNumber="1" r:id="rId2"/>
 </worksheet>
 </file>